--- a/Pack Tester Review.xlsx
+++ b/Pack Tester Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김만규\Documents\MGKIM\Doucument\PackTester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689E5BC4-7E56-44CB-A970-8D5C56A2EB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459A99A-E23B-4FBC-81E9-9BDB09DD543A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15560" activeTab="1" xr2:uid="{F9A919E4-8A61-41E5-B7F9-83062DCAE82F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F9A919E4-8A61-41E5-B7F9-83062DCAE82F}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="2" r:id="rId1"/>
@@ -3035,6 +3035,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -10337,8 +10342,8 @@
   </sheetPr>
   <dimension ref="B1:AP81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F30" sqref="D25:J43"/>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12986,8 +12991,8 @@
   </sheetPr>
   <dimension ref="B1:AH63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:O36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="B2:AH63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Pack Tester Review.xlsx
+++ b/Pack Tester Review.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김만규\Documents\MGKIM\Doucument\my-repo-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960B7DA-086C-42CB-8D2A-3AB50C7B8B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83B36D7-7AE4-4DE5-B950-09701C8EE8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F9A919E4-8A61-41E5-B7F9-83062DCAE82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F9A919E4-8A61-41E5-B7F9-83062DCAE82F}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="2" r:id="rId1"/>
     <sheet name="Review" sheetId="1" r:id="rId2"/>
     <sheet name="Kesight" sheetId="3" r:id="rId3"/>
+    <sheet name="추가요구사항" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="218">
   <si>
     <t>PACK TESTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1204,12 +1205,40 @@
 (상태머신)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>추가 요구 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병렬 운전 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 Viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작점을 같은 점 기능 다채널 Ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error List 수정 및 추가 (정리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정관리 혹은 건너뛰기 기능 (레시피 합치기 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1350,8 +1379,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,6 +1422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,7 +2011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2556,6 +2599,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2667,15 +2743,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>137680</xdr:colOff>
+      <xdr:colOff>140855</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>207819</xdr:rowOff>
+      <xdr:rowOff>179244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>42723</xdr:rowOff>
+      <xdr:rowOff>17323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2705,8 +2781,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2899930" y="15638319"/>
-          <a:ext cx="12340070" cy="6907217"/>
+          <a:off x="2769755" y="15924069"/>
+          <a:ext cx="11733645" cy="7067554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3349,8 +3425,8 @@
   </sheetPr>
   <dimension ref="B1:BM106"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BM106"/>
+    <sheetView topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10342,8 +10418,8 @@
   </sheetPr>
   <dimension ref="B1:AP81"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:J33"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12991,8 +13067,8 @@
   </sheetPr>
   <dimension ref="B1:AH63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N83" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I56" sqref="B2:AH63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -15303,4 +15379,803 @@
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991755E8-69E3-495C-9674-9B77E473F136}">
+  <dimension ref="B2:X26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:24" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="199" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="201"/>
+    </row>
+    <row r="3" spans="2:24" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="204"/>
+    </row>
+    <row r="4" spans="2:24" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="196" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="196" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="196" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="198"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B5" s="43">
+        <v>1</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B6" s="43">
+        <v>2</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B7" s="43">
+        <v>3</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B8" s="43">
+        <v>4</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B9" s="43">
+        <v>5</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B10" s="43">
+        <v>6</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B11" s="43">
+        <v>7</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B12" s="43">
+        <v>8</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B13" s="43">
+        <v>9</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B14" s="43">
+        <v>10</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B15" s="43">
+        <v>11</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B16" s="43">
+        <v>12</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B17" s="43">
+        <v>13</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B18" s="43">
+        <v>14</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B19" s="43">
+        <v>15</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B20" s="43">
+        <v>16</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B21" s="43">
+        <v>17</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B22" s="43">
+        <v>18</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B23" s="43">
+        <v>19</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B24" s="43">
+        <v>20</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B25" s="43">
+        <v>21</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B26" s="43">
+        <v>22</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="93">
+    <mergeCell ref="B2:X3"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:X26"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:X22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="R24:X24"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="R19:X19"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:X20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="R13:X13"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:X14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="R12:X12"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="R7:X7"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="R8:X8"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="R9:X9"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>